--- a/old_database/crypto/fastqFiles/fastq_1272.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_1272.xlsx
@@ -40,7 +40,7 @@
     <t>07.15.14</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_1272</t>
   </si>
   <si>
     <t>sequence/run_1272_samples/run_1272_s_3_withindex_sequence.txt_TGAGGTT.fq</t>
